--- a/data/trans_orig/P57B3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57B3_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>34914</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25710</v>
+        <v>25461</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47450</v>
+        <v>48306</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.05054752988898885</v>
+        <v>0.05054752988898884</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03722202048446022</v>
+        <v>0.03686247880873151</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06869792027183318</v>
+        <v>0.06993716742419885</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>68</v>
@@ -762,19 +762,19 @@
         <v>36130</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27376</v>
+        <v>27595</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45857</v>
+        <v>45300</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04939978770253324</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03743019929697781</v>
+        <v>0.03773006132347703</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06269877688254991</v>
+        <v>0.06193832950919286</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>110</v>
@@ -783,19 +783,19 @@
         <v>71044</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>56662</v>
+        <v>57496</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>85400</v>
+        <v>85707</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.04995724713037834</v>
+        <v>0.04995724713037832</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03984421601487739</v>
+        <v>0.04043072345121511</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06005284122554434</v>
+        <v>0.0602683865421791</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>58650</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45647</v>
+        <v>45636</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>74118</v>
+        <v>73551</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08491238466880206</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06608718661143706</v>
+        <v>0.06607144564780358</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1073072282718173</v>
+        <v>0.1064863819253249</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>140</v>
@@ -833,19 +833,19 @@
         <v>75547</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>62868</v>
+        <v>64145</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>89387</v>
+        <v>89892</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1032945653432295</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08595754176743746</v>
+        <v>0.08770388805970224</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1222167726539379</v>
+        <v>0.1229079748491147</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>211</v>
@@ -854,19 +854,19 @@
         <v>134197</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>115395</v>
+        <v>115947</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>155608</v>
+        <v>155772</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.09436632340680932</v>
+        <v>0.09436632340680935</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08114504512703108</v>
+        <v>0.08153284429986374</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1094224531422279</v>
+        <v>0.1095372366922654</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>213862</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>187348</v>
+        <v>187847</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>240865</v>
+        <v>243350</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3096269681062253</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2712390182213252</v>
+        <v>0.2719619355729475</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3487203780395572</v>
+        <v>0.3523184590529821</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>416</v>
@@ -904,19 +904,19 @@
         <v>235560</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>216155</v>
+        <v>213411</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>255658</v>
+        <v>256824</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3220764684765347</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2955439600974101</v>
+        <v>0.2917921137748239</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.34955581866839</v>
+        <v>0.3511499316112603</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>645</v>
@@ -925,19 +925,19 @@
         <v>449422</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>417231</v>
+        <v>419923</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>484205</v>
+        <v>484029</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3160297347803359</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2933931946153392</v>
+        <v>0.2952860733485052</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3404886634237336</v>
+        <v>0.3403651428731441</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>383284</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>354567</v>
+        <v>352732</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>411805</v>
+        <v>411682</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5549131173359837</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.513336329274355</v>
+        <v>0.5106807851429667</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5962052376711162</v>
+        <v>0.5960274663749505</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>612</v>
@@ -975,19 +975,19 @@
         <v>384142</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>361429</v>
+        <v>361532</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>406419</v>
+        <v>405963</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.5252291784777027</v>
+        <v>0.5252291784777026</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.494174717492137</v>
+        <v>0.4943160475988829</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5556884913584745</v>
+        <v>0.5550657558199259</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1000</v>
@@ -996,19 +996,19 @@
         <v>767425</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>731320</v>
+        <v>731073</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>803870</v>
+        <v>802051</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5396466946824764</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.514257903996659</v>
+        <v>0.514084245525011</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5652741152996952</v>
+        <v>0.5639954106717998</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>49684</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>37219</v>
+        <v>37936</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>65480</v>
+        <v>64845</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04741876555300385</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03552212851810396</v>
+        <v>0.03620662194293521</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06249459433840134</v>
+        <v>0.06188878219408044</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>69</v>
@@ -1121,19 +1121,19 @@
         <v>45809</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>35227</v>
+        <v>35915</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>58941</v>
+        <v>60121</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04282499053713584</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03293235298016273</v>
+        <v>0.03357524860081995</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05510137056199348</v>
+        <v>0.05620456421615837</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>125</v>
@@ -1142,19 +1142,19 @@
         <v>95493</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>78893</v>
+        <v>78532</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>115482</v>
+        <v>114043</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.04509809243038917</v>
+        <v>0.04509809243038918</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.037258368592463</v>
+        <v>0.03708802697464231</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05453832712808953</v>
+        <v>0.05385852013430462</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>83113</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>66620</v>
+        <v>66146</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>105484</v>
+        <v>103339</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07932404965583022</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06358302122477595</v>
+        <v>0.0631310195260107</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1006755202522607</v>
+        <v>0.09862775608746029</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>189</v>
@@ -1192,19 +1192,19 @@
         <v>125415</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>109718</v>
+        <v>108546</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>146760</v>
+        <v>146382</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1172446515817785</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1025695900561361</v>
+        <v>0.1014746066045795</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1371989493735046</v>
+        <v>0.1368450307515296</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>275</v>
@@ -1213,19 +1213,19 @@
         <v>208528</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>184903</v>
+        <v>184510</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>236211</v>
+        <v>236078</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.09848069563412487</v>
+        <v>0.09848069563412488</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08732339359795692</v>
+        <v>0.08713760036648392</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.111554367044365</v>
+        <v>0.1114914832416034</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>354881</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>323936</v>
+        <v>320355</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>390362</v>
+        <v>390388</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3387034730550691</v>
+        <v>0.338703473055069</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3091693644652087</v>
+        <v>0.3057510158633854</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3725668759413659</v>
+        <v>0.3725915991074452</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>563</v>
@@ -1263,19 +1263,19 @@
         <v>381691</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>353964</v>
+        <v>352542</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>409776</v>
+        <v>409623</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3568240163451507</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3309030496978984</v>
+        <v>0.3295737494487517</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3830791813364903</v>
+        <v>0.3829362594769241</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>889</v>
@@ -1284,19 +1284,19 @@
         <v>736572</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>692548</v>
+        <v>690975</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>781970</v>
+        <v>782803</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.3478575691166329</v>
+        <v>0.3478575691166331</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3270663884376097</v>
+        <v>0.3263237951933832</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.369297228771926</v>
+        <v>0.3696909315134004</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>560086</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>520606</v>
+        <v>524196</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>593734</v>
+        <v>598489</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5345537117360969</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4968737646806005</v>
+        <v>0.5003002034346562</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5666685048171806</v>
+        <v>0.5712060053568058</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>693</v>
@@ -1334,19 +1334,19 @@
         <v>516774</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>489089</v>
+        <v>487190</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>545741</v>
+        <v>545722</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4831063415359349</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4572252108481226</v>
+        <v>0.4554498711608445</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.510186139508398</v>
+        <v>0.5101679881326453</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1188</v>
@@ -1355,19 +1355,19 @@
         <v>1076860</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1028928</v>
+        <v>1026621</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1121147</v>
+        <v>1125684</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.5085636428188529</v>
+        <v>0.508563642818853</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4859270094266089</v>
+        <v>0.4848377467963169</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5294792572491896</v>
+        <v>0.5316217083141381</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>19670</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11800</v>
+        <v>11891</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>31244</v>
+        <v>30071</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02452201587727859</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01470994897289907</v>
+        <v>0.01482382065124475</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03895057409065332</v>
+        <v>0.03748884208884423</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>31</v>
@@ -1480,19 +1480,19 @@
         <v>21704</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15078</v>
+        <v>14777</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>29666</v>
+        <v>30724</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02675896384111404</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01858968942626818</v>
+        <v>0.01821875765088657</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03657638441185265</v>
+        <v>0.03788049337276366</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>49</v>
@@ -1501,19 +1501,19 @@
         <v>41374</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>31687</v>
+        <v>30969</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>54904</v>
+        <v>54832</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02564668089464672</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01964232761005397</v>
+        <v>0.01919674580627395</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03403363983537278</v>
+        <v>0.03398889231874395</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>52323</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>39223</v>
+        <v>39415</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>69582</v>
+        <v>71723</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.0652292753356995</v>
+        <v>0.06522927533569949</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04889822626125363</v>
+        <v>0.04913731602215779</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08674510510959647</v>
+        <v>0.08941427029657666</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>64</v>
@@ -1551,19 +1551,19 @@
         <v>53297</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>41383</v>
+        <v>41164</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>68474</v>
+        <v>69580</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.06571149295276546</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.05102191968205136</v>
+        <v>0.05075267767740121</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.08442374680175992</v>
+        <v>0.08578771453625803</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>114</v>
@@ -1572,19 +1572,19 @@
         <v>105620</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>86854</v>
+        <v>87913</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>127527</v>
+        <v>129763</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.06547171874226977</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05383872834440476</v>
+        <v>0.05449507790227615</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07905110073288353</v>
+        <v>0.08043725324801036</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>283378</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>255212</v>
+        <v>250804</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>317371</v>
+        <v>313571</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3532755797824984</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3181613983722544</v>
+        <v>0.3126664395813553</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3956531010569735</v>
+        <v>0.3909151529659767</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>373</v>
@@ -1622,19 +1622,19 @@
         <v>279225</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>252471</v>
+        <v>252145</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>303297</v>
+        <v>301311</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.344265840560855</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3112793338213223</v>
+        <v>0.3108773080577192</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3739443472459443</v>
+        <v>0.3714955294080549</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>610</v>
@@ -1643,19 +1643,19 @@
         <v>562604</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>518636</v>
+        <v>522392</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>603019</v>
+        <v>602116</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3487457745827305</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3214910856189789</v>
+        <v>0.3238194839175755</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3737981154532148</v>
+        <v>0.3732384219720463</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>446773</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>413866</v>
+        <v>416385</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>478009</v>
+        <v>479093</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5569731290045234</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5159494633698929</v>
+        <v>0.5190897344763071</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5959134031565798</v>
+        <v>0.5972647027013098</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>578</v>
@@ -1693,19 +1693,19 @@
         <v>456849</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>429721</v>
+        <v>432027</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>483374</v>
+        <v>484121</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5632637026452655</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5298170855627853</v>
+        <v>0.5326598462960025</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5959671666480454</v>
+        <v>0.5968876002228629</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>948</v>
@@ -1714,19 +1714,19 @@
         <v>903623</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>863695</v>
+        <v>860963</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>949271</v>
+        <v>946867</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5601358257803529</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5353856337735738</v>
+        <v>0.5336920926130891</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.588432218919642</v>
+        <v>0.5869416561847092</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>43913</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>34048</v>
+        <v>32227</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>58834</v>
+        <v>58318</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.04435378079463756</v>
+        <v>0.04435378079463757</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0343901894847146</v>
+        <v>0.03255069103026853</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05942478049941848</v>
+        <v>0.05890357734453168</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>85</v>
@@ -1839,19 +1839,19 @@
         <v>56908</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>45379</v>
+        <v>46473</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>69238</v>
+        <v>69899</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.05095081870267607</v>
+        <v>0.05095081870267608</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04062857486404459</v>
+        <v>0.04160840248227203</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06199067019283345</v>
+        <v>0.06258255823973094</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>136</v>
@@ -1860,19 +1860,19 @@
         <v>100821</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>85171</v>
+        <v>84841</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>119985</v>
+        <v>121679</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.04785089222411804</v>
+        <v>0.04785089222411805</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04042353423441867</v>
+        <v>0.04026666404875315</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05694643869889107</v>
+        <v>0.05775030519085286</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>74773</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>59348</v>
+        <v>60771</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>92283</v>
+        <v>94365</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.0755233049317702</v>
+        <v>0.07552330493177022</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05994385259502517</v>
+        <v>0.06138092850663588</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09320923065017282</v>
+        <v>0.09531224004281395</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>137</v>
@@ -1910,19 +1910,19 @@
         <v>89996</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>77561</v>
+        <v>75574</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>107635</v>
+        <v>106331</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08057573780785157</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06944196901316986</v>
+        <v>0.0676632521488295</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09636771799120286</v>
+        <v>0.09520022287853966</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>223</v>
@@ -1931,19 +1931,19 @@
         <v>164769</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>144782</v>
+        <v>144071</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>187358</v>
+        <v>187241</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0782016161684083</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06871553186542644</v>
+        <v>0.06837805958697443</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08892248668591995</v>
+        <v>0.08886719756424377</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>292292</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>263763</v>
+        <v>259269</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>323267</v>
+        <v>324792</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2952263785410273</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2664108366926945</v>
+        <v>0.2618710036250651</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3265117681356944</v>
+        <v>0.3280519899033618</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>510</v>
@@ -1981,19 +1981,19 @@
         <v>357321</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>330700</v>
+        <v>327028</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>385618</v>
+        <v>383778</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.319917654867204</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2960834238123364</v>
+        <v>0.2927953830284744</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3452525224224917</v>
+        <v>0.3436053583447486</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>813</v>
@@ -2002,19 +2002,19 @@
         <v>649614</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>609888</v>
+        <v>605188</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>693899</v>
+        <v>688574</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3083153050944912</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.289461202719675</v>
+        <v>0.2872302596941889</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.329333998861746</v>
+        <v>0.3268062838627793</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>579084</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>544614</v>
+        <v>543382</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>609324</v>
+        <v>612049</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5848965357325649</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.550080228817789</v>
+        <v>0.5488367266030909</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6154404999654275</v>
+        <v>0.6181921316934054</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>827</v>
@@ -2052,19 +2052,19 @@
         <v>612691</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>582431</v>
+        <v>582574</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>640244</v>
+        <v>642258</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5485557886222684</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5214637457833363</v>
+        <v>0.5215913642914339</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5732247699910725</v>
+        <v>0.5750279642056517</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1393</v>
@@ -2073,19 +2073,19 @@
         <v>1191775</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1148009</v>
+        <v>1145944</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1237012</v>
+        <v>1236411</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.5656321865129824</v>
+        <v>0.5656321865129823</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5448602708319539</v>
+        <v>0.543880599397256</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5871022953390441</v>
+        <v>0.5868172878763385</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>148181</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>127349</v>
+        <v>124412</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>173239</v>
+        <v>170511</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04196939560380404</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03606920439955062</v>
+        <v>0.03523754369452346</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0490666391392745</v>
+        <v>0.04829413382377568</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>253</v>
@@ -2198,19 +2198,19 @@
         <v>160551</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>140206</v>
+        <v>141753</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>181829</v>
+        <v>183656</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04305394431604317</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03759816022579602</v>
+        <v>0.03801300370127016</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04876010731776365</v>
+        <v>0.04924993445631787</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>420</v>
@@ -2219,19 +2219,19 @@
         <v>308731</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>278371</v>
+        <v>276868</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>338947</v>
+        <v>339443</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04252648818149524</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03834448525957444</v>
+        <v>0.03813750780618121</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04668854255856134</v>
+        <v>0.04675694753516094</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>268859</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>235591</v>
+        <v>239882</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>300576</v>
+        <v>300726</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07614927417463377</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06672669116883716</v>
+        <v>0.06794220468373606</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08513247055323712</v>
+        <v>0.08517501389061663</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>530</v>
@@ -2269,19 +2269,19 @@
         <v>344256</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>315234</v>
+        <v>317138</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>378680</v>
+        <v>377446</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09231714885433338</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08453433213764086</v>
+        <v>0.08504511031394744</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1015484067626119</v>
+        <v>0.1012173414596201</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>823</v>
@@ -2290,19 +2290,19 @@
         <v>613115</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>567939</v>
+        <v>575528</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>655719</v>
+        <v>664358</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0844541136709681</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0782313463541964</v>
+        <v>0.07927667640235336</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0903226297634112</v>
+        <v>0.0915126677226463</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>1144414</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1083993</v>
+        <v>1080911</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1202392</v>
+        <v>1205771</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3241341831157277</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3070211535158607</v>
+        <v>0.3061482345286492</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3405553278499661</v>
+        <v>0.341512530813133</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1862</v>
@@ -2340,19 +2340,19 @@
         <v>1253798</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1203108</v>
+        <v>1205647</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1304276</v>
+        <v>1307228</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3362235035589667</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3226304811989364</v>
+        <v>0.3233113556114928</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3497600513898684</v>
+        <v>0.3505516541429334</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2957</v>
@@ -2361,19 +2361,19 @@
         <v>2398212</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2319803</v>
+        <v>2315407</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2475992</v>
+        <v>2476131</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3303440200850181</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3195435858363626</v>
+        <v>0.3189380327577883</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3410579557074108</v>
+        <v>0.3410771338891713</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>1969227</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1900559</v>
+        <v>1902302</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2034483</v>
+        <v>2034797</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.5577471471058344</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5382983919356567</v>
+        <v>0.5387918551349018</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5762297477866007</v>
+        <v>0.5763188108188676</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2710</v>
@@ -2411,19 +2411,19 @@
         <v>1970455</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1919236</v>
+        <v>1910914</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2024582</v>
+        <v>2021535</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.5284054032706568</v>
+        <v>0.5284054032706569</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.5146701210218427</v>
+        <v>0.5124384318672168</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5429202355507832</v>
+        <v>0.5421032305969388</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>4529</v>
@@ -2432,19 +2432,19 @@
         <v>3939682</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>3857186</v>
+        <v>3860551</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>4026627</v>
+        <v>4030302</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.5426753780625185</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.5313118307892806</v>
+        <v>0.5317753917266821</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5546516205255065</v>
+        <v>0.5551578359782025</v>
       </c>
     </row>
     <row r="28">
